--- a/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
@@ -835,7 +835,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR6" t="n">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="AX9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR10" t="n">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR11" t="n">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="AX14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="AX15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="AX21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR22" t="n">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR23" t="n">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="AX31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="AX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="AX34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR35" t="n">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="AX36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="AX37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="AX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR40" t="n">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AX43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         </is>
       </c>
       <c r="AX44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR45" t="n">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="AX45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="AX46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="AX48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="AX49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="AX50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="AX51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR52" t="n">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="AX52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR53" t="n">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="AX53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR54" t="n">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="AX55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="AX56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="AX57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -9916,7 +9916,7 @@
         </is>
       </c>
       <c r="AX58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR59" t="n">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="AX59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="AX60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="AX61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="AX62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR63" t="n">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="AX63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="AX64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR65" t="n">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="AX65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -11212,7 +11212,7 @@
         </is>
       </c>
       <c r="AX66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -11374,7 +11374,7 @@
         </is>
       </c>
       <c r="AX67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="AX68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11698,7 +11698,7 @@
         </is>
       </c>
       <c r="AX69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -11851,7 +11851,7 @@
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="AX70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="AX71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -12184,7 +12184,7 @@
         </is>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR73" t="n">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="AX73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR74" t="n">
@@ -12508,7 +12508,7 @@
         </is>
       </c>
       <c r="AX74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -12670,7 +12670,7 @@
         </is>
       </c>
       <c r="AX75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="AX76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR78" t="n">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="AX78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -13318,7 +13318,7 @@
         </is>
       </c>
       <c r="AX79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13480,7 +13480,7 @@
         </is>
       </c>
       <c r="AX80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="AX81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="AX82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="AX83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="AX84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -14290,7 +14290,7 @@
         </is>
       </c>
       <c r="AX85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR86" t="n">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="AX86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="AX87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="AX88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -14938,7 +14938,7 @@
         </is>
       </c>
       <c r="AX89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR90" t="n">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="AX91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="AX92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR93" t="n">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="AU93" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="AX93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="AX94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -15910,7 +15910,7 @@
         </is>
       </c>
       <c r="AX95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR96" t="n">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="AX96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR97" t="n">
@@ -16234,7 +16234,7 @@
         </is>
       </c>
       <c r="AX97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="AX98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="AX99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -16720,7 +16720,7 @@
         </is>
       </c>
       <c r="AX100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="AQ101" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR101" t="n">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="AX101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR102" t="n">
@@ -17030,12 +17030,12 @@
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -17044,7 +17044,7 @@
         </is>
       </c>
       <c r="AX102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -17206,7 +17206,7 @@
         </is>
       </c>
       <c r="AX103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="AX104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -17516,12 +17516,12 @@
       </c>
       <c r="AU105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW105" t="inlineStr">
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="AX105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR106" t="n">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="AX106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -17840,12 +17840,12 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -17854,7 +17854,7 @@
         </is>
       </c>
       <c r="AX107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR108" t="n">
@@ -18002,12 +18002,12 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW108" t="inlineStr">
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="AX108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -18178,7 +18178,7 @@
         </is>
       </c>
       <c r="AX109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -18340,7 +18340,7 @@
         </is>
       </c>
       <c r="AX110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="AQ111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR111" t="n">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW111" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="AX111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR112" t="n">
@@ -18650,12 +18650,12 @@
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -18812,12 +18812,12 @@
       </c>
       <c r="AU113" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV113" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW113" t="inlineStr">
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="AX113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR114" t="n">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="AU114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW114" t="inlineStr">
@@ -18988,7 +18988,7 @@
         </is>
       </c>
       <c r="AX114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -19136,12 +19136,12 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW115" t="inlineStr">
@@ -19150,7 +19150,7 @@
         </is>
       </c>
       <c r="AX115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="AX116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -19460,12 +19460,12 @@
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -19474,7 +19474,7 @@
         </is>
       </c>
       <c r="AX117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="AX118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR119" t="n">
@@ -19960,7 +19960,7 @@
         </is>
       </c>
       <c r="AX120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -20122,7 +20122,7 @@
         </is>
       </c>
       <c r="AX121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR122" t="n">
@@ -20284,7 +20284,7 @@
         </is>
       </c>
       <c r="AX122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="AX123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -20608,7 +20608,7 @@
         </is>
       </c>
       <c r="AX124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="AU125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV125" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW125" t="inlineStr">
@@ -20770,7 +20770,7 @@
         </is>
       </c>
       <c r="AX125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -20932,7 +20932,7 @@
         </is>
       </c>
       <c r="AX126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -21094,7 +21094,7 @@
         </is>
       </c>
       <c r="AX127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="AQ128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR128" t="n">
@@ -21256,7 +21256,7 @@
         </is>
       </c>
       <c r="AX128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="AX129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="AX130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="AQ131" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR131" t="n">
@@ -21728,12 +21728,12 @@
       </c>
       <c r="AU131" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV131" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW131" t="inlineStr">
@@ -21742,7 +21742,7 @@
         </is>
       </c>
       <c r="AX131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -21890,12 +21890,12 @@
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr">
@@ -21904,7 +21904,7 @@
         </is>
       </c>
       <c r="AX132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="AU133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV133" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW133" t="inlineStr">
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="AX133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -22228,7 +22228,7 @@
         </is>
       </c>
       <c r="AX134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -22390,7 +22390,7 @@
         </is>
       </c>
       <c r="AX135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="AX136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -22714,7 +22714,7 @@
         </is>
       </c>
       <c r="AX137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="AQ138" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR138" t="n">
@@ -23038,7 +23038,7 @@
         </is>
       </c>
       <c r="AX139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -23186,12 +23186,12 @@
       </c>
       <c r="AU140" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV140" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW140" t="inlineStr">
@@ -23200,7 +23200,7 @@
         </is>
       </c>
       <c r="AX140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -23334,7 +23334,7 @@
       </c>
       <c r="AQ141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR141" t="n">
@@ -23348,12 +23348,12 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="AX141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -23496,7 +23496,7 @@
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR142" t="n">
@@ -23510,12 +23510,12 @@
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -23524,7 +23524,7 @@
         </is>
       </c>
       <c r="AX142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -23672,12 +23672,12 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
@@ -23686,7 +23686,7 @@
         </is>
       </c>
       <c r="AX143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -23834,12 +23834,12 @@
       </c>
       <c r="AU144" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV144" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW144" t="inlineStr">
@@ -23848,7 +23848,7 @@
         </is>
       </c>
       <c r="AX144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="AQ145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR145" t="n">
@@ -23996,12 +23996,12 @@
       </c>
       <c r="AU145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
@@ -24010,7 +24010,7 @@
         </is>
       </c>
       <c r="AX145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="AX146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -24320,12 +24320,12 @@
       </c>
       <c r="AU147" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV147" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW147" t="inlineStr">
@@ -24334,7 +24334,7 @@
         </is>
       </c>
       <c r="AX147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="AX148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -24658,7 +24658,7 @@
         </is>
       </c>
       <c r="AX149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -24820,7 +24820,7 @@
         </is>
       </c>
       <c r="AX150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -24982,7 +24982,7 @@
         </is>
       </c>
       <c r="AX151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -25144,7 +25144,7 @@
         </is>
       </c>
       <c r="AX152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -25306,7 +25306,7 @@
         </is>
       </c>
       <c r="AX153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -25468,7 +25468,7 @@
         </is>
       </c>
       <c r="AX154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -25630,7 +25630,7 @@
         </is>
       </c>
       <c r="AX155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -25778,12 +25778,12 @@
       </c>
       <c r="AU156" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV156" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW156" t="inlineStr">
@@ -25792,7 +25792,7 @@
         </is>
       </c>
       <c r="AX156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -25954,7 +25954,7 @@
         </is>
       </c>
       <c r="AX157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -26116,7 +26116,7 @@
         </is>
       </c>
       <c r="AX158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -26250,7 +26250,7 @@
       </c>
       <c r="AQ159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR159" t="n">
@@ -26264,12 +26264,12 @@
       </c>
       <c r="AU159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV159" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW159" t="inlineStr">
@@ -26440,7 +26440,7 @@
         </is>
       </c>
       <c r="AX160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -26602,7 +26602,7 @@
         </is>
       </c>
       <c r="AX161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="AX162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -26926,7 +26926,7 @@
         </is>
       </c>
       <c r="AX163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -27088,7 +27088,7 @@
         </is>
       </c>
       <c r="AX164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -27250,7 +27250,7 @@
         </is>
       </c>
       <c r="AX165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -27412,7 +27412,7 @@
         </is>
       </c>
       <c r="AX166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR167" t="n">
@@ -27560,12 +27560,12 @@
       </c>
       <c r="AU167" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV167" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW167" t="inlineStr">
@@ -27736,7 +27736,7 @@
         </is>
       </c>
       <c r="AX168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -27884,12 +27884,12 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV169" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW169" t="inlineStr">
@@ -27898,7 +27898,7 @@
         </is>
       </c>
       <c r="AX169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR170" t="n">
@@ -28046,12 +28046,12 @@
       </c>
       <c r="AU170" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV170" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW170" t="inlineStr">
@@ -28222,7 +28222,7 @@
         </is>
       </c>
       <c r="AX171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -28370,12 +28370,12 @@
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
@@ -28384,7 +28384,7 @@
         </is>
       </c>
       <c r="AX172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="AX173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -28708,7 +28708,7 @@
         </is>
       </c>
       <c r="AX174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -28856,12 +28856,12 @@
       </c>
       <c r="AU175" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV175" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW175" t="inlineStr">
@@ -28870,7 +28870,7 @@
         </is>
       </c>
       <c r="AX175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -29004,7 +29004,7 @@
       </c>
       <c r="AQ176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR176" t="n">
@@ -29018,12 +29018,12 @@
       </c>
       <c r="AU176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV176" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW176" t="inlineStr">
@@ -29032,7 +29032,7 @@
         </is>
       </c>
       <c r="AX176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="AV177" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW177" t="inlineStr">
@@ -29194,7 +29194,7 @@
         </is>
       </c>
       <c r="AX177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -29356,7 +29356,7 @@
         </is>
       </c>
       <c r="AX178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -29490,7 +29490,7 @@
       </c>
       <c r="AQ179" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR179" t="n">
@@ -29504,12 +29504,12 @@
       </c>
       <c r="AU179" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV179" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW179" t="inlineStr">
@@ -29518,7 +29518,7 @@
         </is>
       </c>
       <c r="AX179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -29666,12 +29666,12 @@
       </c>
       <c r="AU180" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV180" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW180" t="inlineStr">
@@ -29680,7 +29680,7 @@
         </is>
       </c>
       <c r="AX180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -29828,12 +29828,12 @@
       </c>
       <c r="AU181" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV181" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW181" t="inlineStr">
@@ -29842,7 +29842,7 @@
         </is>
       </c>
       <c r="AX181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -29990,12 +29990,12 @@
       </c>
       <c r="AU182" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV182" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW182" t="inlineStr">
@@ -30004,7 +30004,7 @@
         </is>
       </c>
       <c r="AX182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183">
@@ -30152,12 +30152,12 @@
       </c>
       <c r="AU183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV183" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW183" t="inlineStr">
@@ -30166,7 +30166,7 @@
         </is>
       </c>
       <c r="AX183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="AQ184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR184" t="n">
@@ -30314,12 +30314,12 @@
       </c>
       <c r="AU184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV184" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW184" t="inlineStr">
@@ -30328,7 +30328,7 @@
         </is>
       </c>
       <c r="AX184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -30476,12 +30476,12 @@
       </c>
       <c r="AU185" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV185" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW185" t="inlineStr">
@@ -30490,7 +30490,7 @@
         </is>
       </c>
       <c r="AX185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -30638,12 +30638,12 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV186" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW186" t="inlineStr">
@@ -30652,7 +30652,7 @@
         </is>
       </c>
       <c r="AX186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -30814,7 +30814,7 @@
         </is>
       </c>
       <c r="AX187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="AQ188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR188" t="n">
@@ -30962,12 +30962,12 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV188" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW188" t="inlineStr">
@@ -30976,7 +30976,7 @@
         </is>
       </c>
       <c r="AX188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="AQ189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR189" t="n">
@@ -31124,12 +31124,12 @@
       </c>
       <c r="AU189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV189" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW189" t="inlineStr">
@@ -31138,7 +31138,7 @@
         </is>
       </c>
       <c r="AX189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -31300,7 +31300,7 @@
         </is>
       </c>
       <c r="AX190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -31434,7 +31434,7 @@
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR191" t="n">
@@ -31462,7 +31462,7 @@
         </is>
       </c>
       <c r="AX191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -31610,12 +31610,12 @@
       </c>
       <c r="AU192" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV192" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW192" t="inlineStr">
@@ -31624,7 +31624,7 @@
         </is>
       </c>
       <c r="AX192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -31786,7 +31786,7 @@
         </is>
       </c>
       <c r="AX193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -31948,7 +31948,7 @@
         </is>
       </c>
       <c r="AX194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="AV195" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW195" t="inlineStr">
@@ -32110,7 +32110,7 @@
         </is>
       </c>
       <c r="AX195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR196" t="n">
@@ -32258,12 +32258,12 @@
       </c>
       <c r="AU196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV196" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW196" t="inlineStr">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="AX196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -32434,7 +32434,7 @@
         </is>
       </c>
       <c r="AX197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -32587,7 +32587,7 @@
       </c>
       <c r="AV198" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW198" t="inlineStr">
@@ -32596,7 +32596,7 @@
         </is>
       </c>
       <c r="AX198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -32758,7 +32758,7 @@
         </is>
       </c>
       <c r="AX199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -32906,12 +32906,12 @@
       </c>
       <c r="AU200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV200" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW200" t="inlineStr">
@@ -32920,7 +32920,7 @@
         </is>
       </c>
       <c r="AX200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -33068,12 +33068,12 @@
       </c>
       <c r="AU201" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV201" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW201" t="inlineStr">
@@ -33082,7 +33082,7 @@
         </is>
       </c>
       <c r="AX201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR202" t="n">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="AX202" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -33406,7 +33406,7 @@
         </is>
       </c>
       <c r="AX203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -33568,7 +33568,7 @@
         </is>
       </c>
       <c r="AX204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -33730,7 +33730,7 @@
         </is>
       </c>
       <c r="AX205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -33878,12 +33878,12 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="AX206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -34054,7 +34054,7 @@
         </is>
       </c>
       <c r="AX207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -34216,7 +34216,7 @@
         </is>
       </c>
       <c r="AX208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -34350,7 +34350,7 @@
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR209" t="n">
@@ -34364,12 +34364,12 @@
       </c>
       <c r="AU209" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV209" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW209" t="inlineStr">
@@ -34378,7 +34378,7 @@
         </is>
       </c>
       <c r="AX209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -34540,7 +34540,7 @@
         </is>
       </c>
       <c r="AX210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -34702,7 +34702,7 @@
         </is>
       </c>
       <c r="AX211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -34850,12 +34850,12 @@
       </c>
       <c r="AU212" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV212" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW212" t="inlineStr">
@@ -34864,7 +34864,7 @@
         </is>
       </c>
       <c r="AX212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="AX213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -35179,7 +35179,7 @@
       </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
@@ -35188,7 +35188,7 @@
         </is>
       </c>
       <c r="AX214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -35336,12 +35336,12 @@
       </c>
       <c r="AU215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV215" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW215" t="inlineStr">
@@ -35350,7 +35350,7 @@
         </is>
       </c>
       <c r="AX215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -35503,7 +35503,7 @@
       </c>
       <c r="AV216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW216" t="inlineStr">
@@ -35512,7 +35512,7 @@
         </is>
       </c>
       <c r="AX216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -35674,7 +35674,7 @@
         </is>
       </c>
       <c r="AX217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -35836,7 +35836,7 @@
         </is>
       </c>
       <c r="AX218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -35998,7 +35998,7 @@
         </is>
       </c>
       <c r="AX219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -36160,7 +36160,7 @@
         </is>
       </c>
       <c r="AX220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -36322,7 +36322,7 @@
         </is>
       </c>
       <c r="AX221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -36484,7 +36484,7 @@
         </is>
       </c>
       <c r="AX222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -36646,7 +36646,7 @@
         </is>
       </c>
       <c r="AX223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -36794,12 +36794,12 @@
       </c>
       <c r="AU224" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV224" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW224" t="inlineStr">
@@ -36808,7 +36808,7 @@
         </is>
       </c>
       <c r="AX224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="AV225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW225" t="inlineStr">
@@ -36970,7 +36970,7 @@
         </is>
       </c>
       <c r="AX225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -37104,7 +37104,7 @@
       </c>
       <c r="AQ226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR226" t="n">
@@ -37132,7 +37132,7 @@
         </is>
       </c>
       <c r="AX226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -37280,12 +37280,12 @@
       </c>
       <c r="AU227" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV227" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW227" t="inlineStr">
@@ -37294,7 +37294,7 @@
         </is>
       </c>
       <c r="AX227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -37456,7 +37456,7 @@
         </is>
       </c>
       <c r="AX228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -37604,12 +37604,12 @@
       </c>
       <c r="AU229" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV229" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW229" t="inlineStr">
@@ -37618,7 +37618,7 @@
         </is>
       </c>
       <c r="AX229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -37752,7 +37752,7 @@
       </c>
       <c r="AQ230" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR230" t="n">
@@ -37780,7 +37780,7 @@
         </is>
       </c>
       <c r="AX230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -37933,7 +37933,7 @@
       </c>
       <c r="AV231" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW231" t="inlineStr">
@@ -37942,7 +37942,7 @@
         </is>
       </c>
       <c r="AX231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -38104,7 +38104,7 @@
         </is>
       </c>
       <c r="AX232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -38238,7 +38238,7 @@
       </c>
       <c r="AQ233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR233" t="n">
@@ -38252,12 +38252,12 @@
       </c>
       <c r="AU233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV233" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW233" t="inlineStr">
@@ -38428,7 +38428,7 @@
         </is>
       </c>
       <c r="AX234" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -38562,7 +38562,7 @@
       </c>
       <c r="AQ235" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR235" t="n">
@@ -38590,7 +38590,7 @@
         </is>
       </c>
       <c r="AX235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="AQ236" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR236" t="n">
@@ -38752,7 +38752,7 @@
         </is>
       </c>
       <c r="AX236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="AQ237" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR237" t="n">
@@ -38914,7 +38914,7 @@
         </is>
       </c>
       <c r="AX237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -39067,7 +39067,7 @@
       </c>
       <c r="AV238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW238" t="inlineStr">
@@ -39076,7 +39076,7 @@
         </is>
       </c>
       <c r="AX238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -39224,12 +39224,12 @@
       </c>
       <c r="AU239" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV239" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW239" t="inlineStr">
@@ -39238,7 +39238,7 @@
         </is>
       </c>
       <c r="AX239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -39386,12 +39386,12 @@
       </c>
       <c r="AU240" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV240" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW240" t="inlineStr">
@@ -39400,7 +39400,7 @@
         </is>
       </c>
       <c r="AX240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -39548,12 +39548,12 @@
       </c>
       <c r="AU241" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV241" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW241" t="inlineStr">
@@ -39562,7 +39562,7 @@
         </is>
       </c>
       <c r="AX241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="AQ242" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR242" t="n">
@@ -39724,7 +39724,7 @@
         </is>
       </c>
       <c r="AX242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -39872,12 +39872,12 @@
       </c>
       <c r="AU243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV243" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW243" t="inlineStr">
@@ -39886,7 +39886,7 @@
         </is>
       </c>
       <c r="AX243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -40048,7 +40048,7 @@
         </is>
       </c>
       <c r="AX244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -40210,7 +40210,7 @@
         </is>
       </c>
       <c r="AX245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -40372,7 +40372,7 @@
         </is>
       </c>
       <c r="AX246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -40534,7 +40534,7 @@
         </is>
       </c>
       <c r="AX247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="AX248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -40858,7 +40858,7 @@
         </is>
       </c>
       <c r="AX249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -41020,7 +41020,7 @@
         </is>
       </c>
       <c r="AX250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -41154,7 +41154,7 @@
       </c>
       <c r="AQ251" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR251" t="n">
@@ -41182,7 +41182,7 @@
         </is>
       </c>
       <c r="AX251" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -41344,7 +41344,7 @@
         </is>
       </c>
       <c r="AX252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -41478,7 +41478,7 @@
       </c>
       <c r="AQ253" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR253" t="n">
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="AX253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -41659,7 +41659,7 @@
       </c>
       <c r="AV254" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW254" t="inlineStr">
@@ -41668,7 +41668,7 @@
         </is>
       </c>
       <c r="AX254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -41830,7 +41830,7 @@
         </is>
       </c>
       <c r="AX255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -41992,7 +41992,7 @@
         </is>
       </c>
       <c r="AX256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -42154,7 +42154,7 @@
         </is>
       </c>
       <c r="AX257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -42316,7 +42316,7 @@
         </is>
       </c>
       <c r="AX258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -42478,7 +42478,7 @@
         </is>
       </c>
       <c r="AX259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -42640,7 +42640,7 @@
         </is>
       </c>
       <c r="AX260" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -42802,7 +42802,7 @@
         </is>
       </c>
       <c r="AX261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -42936,7 +42936,7 @@
       </c>
       <c r="AQ262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR262" t="n">
@@ -43126,7 +43126,7 @@
         </is>
       </c>
       <c r="AX263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -43288,7 +43288,7 @@
         </is>
       </c>
       <c r="AX264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -43450,7 +43450,7 @@
         </is>
       </c>
       <c r="AX265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -43612,7 +43612,7 @@
         </is>
       </c>
       <c r="AX266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -43746,7 +43746,7 @@
       </c>
       <c r="AQ267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR267" t="n">
@@ -43774,7 +43774,7 @@
         </is>
       </c>
       <c r="AX267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -43936,7 +43936,7 @@
         </is>
       </c>
       <c r="AX268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -44089,7 +44089,7 @@
       </c>
       <c r="AV269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW269" t="inlineStr">
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="AX269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -44260,7 +44260,7 @@
         </is>
       </c>
       <c r="AX270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -44408,12 +44408,12 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV271" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW271" t="inlineStr">
@@ -44422,7 +44422,7 @@
         </is>
       </c>
       <c r="AX271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -44584,7 +44584,7 @@
         </is>
       </c>
       <c r="AX272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -44737,7 +44737,7 @@
       </c>
       <c r="AV273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW273" t="inlineStr">
@@ -44746,7 +44746,7 @@
         </is>
       </c>
       <c r="AX273" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -44908,7 +44908,7 @@
         </is>
       </c>
       <c r="AX274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -45070,7 +45070,7 @@
         </is>
       </c>
       <c r="AX275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -45204,7 +45204,7 @@
       </c>
       <c r="AQ276" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR276" t="n">
@@ -45218,12 +45218,12 @@
       </c>
       <c r="AU276" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV276" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW276" t="inlineStr">
@@ -45232,7 +45232,7 @@
         </is>
       </c>
       <c r="AX276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -45380,12 +45380,12 @@
       </c>
       <c r="AU277" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV277" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW277" t="inlineStr">
@@ -45394,7 +45394,7 @@
         </is>
       </c>
       <c r="AX277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -45528,7 +45528,7 @@
       </c>
       <c r="AQ278" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR278" t="n">
@@ -45556,7 +45556,7 @@
         </is>
       </c>
       <c r="AX278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -45718,7 +45718,7 @@
         </is>
       </c>
       <c r="AX279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -45866,12 +45866,12 @@
       </c>
       <c r="AU280" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV280" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW280" t="inlineStr">
@@ -45880,7 +45880,7 @@
         </is>
       </c>
       <c r="AX280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -46028,12 +46028,12 @@
       </c>
       <c r="AU281" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV281" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW281" t="inlineStr">
@@ -46042,7 +46042,7 @@
         </is>
       </c>
       <c r="AX281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -46176,7 +46176,7 @@
       </c>
       <c r="AQ282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR282" t="n">
@@ -46190,12 +46190,12 @@
       </c>
       <c r="AU282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV282" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW282" t="inlineStr">
@@ -46204,7 +46204,7 @@
         </is>
       </c>
       <c r="AX282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -46366,7 +46366,7 @@
         </is>
       </c>
       <c r="AX283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -46500,7 +46500,7 @@
       </c>
       <c r="AQ284" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR284" t="n">
@@ -46676,12 +46676,12 @@
       </c>
       <c r="AU285" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV285" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW285" t="inlineStr">
@@ -46690,7 +46690,7 @@
         </is>
       </c>
       <c r="AX285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -46824,7 +46824,7 @@
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR286" t="n">
@@ -46838,12 +46838,12 @@
       </c>
       <c r="AU286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV286" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW286" t="inlineStr">
@@ -46852,7 +46852,7 @@
         </is>
       </c>
       <c r="AX286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -46986,7 +46986,7 @@
       </c>
       <c r="AQ287" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR287" t="n">
@@ -47005,7 +47005,7 @@
       </c>
       <c r="AV287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW287" t="inlineStr">
@@ -47148,7 +47148,7 @@
       </c>
       <c r="AQ288" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR288" t="n">
@@ -47167,7 +47167,7 @@
       </c>
       <c r="AV288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW288" t="inlineStr">
@@ -47338,7 +47338,7 @@
         </is>
       </c>
       <c r="AX289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -47472,7 +47472,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR290" t="n">
@@ -47486,12 +47486,12 @@
       </c>
       <c r="AU290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV290" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW290" t="inlineStr">
@@ -47500,7 +47500,7 @@
         </is>
       </c>
       <c r="AX290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -47648,12 +47648,12 @@
       </c>
       <c r="AU291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV291" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW291" t="inlineStr">
@@ -47662,7 +47662,7 @@
         </is>
       </c>
       <c r="AX291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -47815,7 +47815,7 @@
       </c>
       <c r="AV292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW292" t="inlineStr">
@@ -47824,7 +47824,7 @@
         </is>
       </c>
       <c r="AX292" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="AX293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -48120,7 +48120,7 @@
       </c>
       <c r="AQ294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR294" t="n">
@@ -48134,12 +48134,12 @@
       </c>
       <c r="AU294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV294" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW294" t="inlineStr">
@@ -48310,7 +48310,7 @@
         </is>
       </c>
       <c r="AX295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -48472,7 +48472,7 @@
         </is>
       </c>
       <c r="AX296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -48634,7 +48634,7 @@
         </is>
       </c>
       <c r="AX297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -48796,7 +48796,7 @@
         </is>
       </c>
       <c r="AX298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -48930,7 +48930,7 @@
       </c>
       <c r="AQ299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR299" t="n">
@@ -48958,7 +48958,7 @@
         </is>
       </c>
       <c r="AX299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -49120,7 +49120,7 @@
         </is>
       </c>
       <c r="AX300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -49254,7 +49254,7 @@
       </c>
       <c r="AQ301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR301" t="n">
@@ -49268,12 +49268,12 @@
       </c>
       <c r="AU301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV301" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW301" t="inlineStr">
@@ -49282,7 +49282,7 @@
         </is>
       </c>
       <c r="AX301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -49444,7 +49444,7 @@
         </is>
       </c>
       <c r="AX302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -49606,7 +49606,7 @@
         </is>
       </c>
       <c r="AX303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -49740,7 +49740,7 @@
       </c>
       <c r="AQ304" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR304" t="n">
@@ -49754,12 +49754,12 @@
       </c>
       <c r="AU304" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV304" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW304" t="inlineStr">
@@ -49768,7 +49768,7 @@
         </is>
       </c>
       <c r="AX304" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -49930,7 +49930,7 @@
         </is>
       </c>
       <c r="AX305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -50064,7 +50064,7 @@
       </c>
       <c r="AQ306" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR306" t="n">
@@ -50092,7 +50092,7 @@
         </is>
       </c>
       <c r="AX306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -50226,7 +50226,7 @@
       </c>
       <c r="AQ307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR307" t="n">
@@ -50416,7 +50416,7 @@
         </is>
       </c>
       <c r="AX308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -50578,7 +50578,7 @@
         </is>
       </c>
       <c r="AX309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -50740,7 +50740,7 @@
         </is>
       </c>
       <c r="AX310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -50902,7 +50902,7 @@
         </is>
       </c>
       <c r="AX311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -51064,7 +51064,7 @@
         </is>
       </c>
       <c r="AX312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -51198,7 +51198,7 @@
       </c>
       <c r="AQ313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR313" t="n">
@@ -51212,12 +51212,12 @@
       </c>
       <c r="AU313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV313" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW313" t="inlineStr">
@@ -51226,7 +51226,7 @@
         </is>
       </c>
       <c r="AX313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -51360,7 +51360,7 @@
       </c>
       <c r="AQ314" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR314" t="n">
@@ -51374,12 +51374,12 @@
       </c>
       <c r="AU314" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV314" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW314" t="inlineStr">
@@ -51388,7 +51388,7 @@
         </is>
       </c>
       <c r="AX314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -51536,12 +51536,12 @@
       </c>
       <c r="AU315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV315" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW315" t="inlineStr">
@@ -51550,7 +51550,7 @@
         </is>
       </c>
       <c r="AX315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -51698,12 +51698,12 @@
       </c>
       <c r="AU316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV316" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW316" t="inlineStr">
@@ -51712,7 +51712,7 @@
         </is>
       </c>
       <c r="AX316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -51874,7 +51874,7 @@
         </is>
       </c>
       <c r="AX317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -52022,12 +52022,12 @@
       </c>
       <c r="AU318" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV318" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW318" t="inlineStr">
@@ -52036,7 +52036,7 @@
         </is>
       </c>
       <c r="AX318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -52170,7 +52170,7 @@
       </c>
       <c r="AQ319" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR319" t="n">
@@ -52198,7 +52198,7 @@
         </is>
       </c>
       <c r="AX319" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -52346,12 +52346,12 @@
       </c>
       <c r="AU320" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV320" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW320" t="inlineStr">
@@ -52360,7 +52360,7 @@
         </is>
       </c>
       <c r="AX320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -52508,12 +52508,12 @@
       </c>
       <c r="AU321" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV321" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW321" t="inlineStr">
@@ -52522,7 +52522,7 @@
         </is>
       </c>
       <c r="AX321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -52670,12 +52670,12 @@
       </c>
       <c r="AU322" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV322" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW322" t="inlineStr">
@@ -52684,7 +52684,7 @@
         </is>
       </c>
       <c r="AX322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -52832,12 +52832,12 @@
       </c>
       <c r="AU323" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV323" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW323" t="inlineStr">
@@ -52846,7 +52846,7 @@
         </is>
       </c>
       <c r="AX323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -52980,7 +52980,7 @@
       </c>
       <c r="AQ324" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR324" t="n">
@@ -53008,7 +53008,7 @@
         </is>
       </c>
       <c r="AX324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -53142,7 +53142,7 @@
       </c>
       <c r="AQ325" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR325" t="n">
@@ -53156,12 +53156,12 @@
       </c>
       <c r="AU325" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV325" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW325" t="inlineStr">
@@ -53170,7 +53170,7 @@
         </is>
       </c>
       <c r="AX325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -53332,7 +53332,7 @@
         </is>
       </c>
       <c r="AX326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -53480,12 +53480,12 @@
       </c>
       <c r="AU327" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV327" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW327" t="inlineStr">
@@ -53494,7 +53494,7 @@
         </is>
       </c>
       <c r="AX327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -53647,7 +53647,7 @@
       </c>
       <c r="AV328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW328" t="inlineStr">
@@ -53656,7 +53656,7 @@
         </is>
       </c>
       <c r="AX328" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -53818,7 +53818,7 @@
         </is>
       </c>
       <c r="AX329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -53980,7 +53980,7 @@
         </is>
       </c>
       <c r="AX330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -54142,7 +54142,7 @@
         </is>
       </c>
       <c r="AX331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -54304,7 +54304,7 @@
         </is>
       </c>
       <c r="AX332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -54452,12 +54452,12 @@
       </c>
       <c r="AU333" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV333" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW333" t="inlineStr">
@@ -54466,7 +54466,7 @@
         </is>
       </c>
       <c r="AX333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -54600,7 +54600,7 @@
       </c>
       <c r="AQ334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR334" t="n">
@@ -54614,12 +54614,12 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV334" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW334" t="inlineStr">
@@ -54628,7 +54628,7 @@
         </is>
       </c>
       <c r="AX334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -54790,7 +54790,7 @@
         </is>
       </c>
       <c r="AX335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -54952,7 +54952,7 @@
         </is>
       </c>
       <c r="AX336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -55100,12 +55100,12 @@
       </c>
       <c r="AU337" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV337" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW337" t="inlineStr">
@@ -55114,7 +55114,7 @@
         </is>
       </c>
       <c r="AX337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -55276,7 +55276,7 @@
         </is>
       </c>
       <c r="AX338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -55410,7 +55410,7 @@
       </c>
       <c r="AQ339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR339" t="n">
@@ -55424,12 +55424,12 @@
       </c>
       <c r="AU339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV339" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW339" t="inlineStr">
@@ -55438,7 +55438,7 @@
         </is>
       </c>
       <c r="AX339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -55600,7 +55600,7 @@
         </is>
       </c>
       <c r="AX340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -55734,7 +55734,7 @@
       </c>
       <c r="AQ341" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR341" t="n">
@@ -55762,7 +55762,7 @@
         </is>
       </c>
       <c r="AX341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -55924,7 +55924,7 @@
         </is>
       </c>
       <c r="AX342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -56086,7 +56086,7 @@
         </is>
       </c>
       <c r="AX343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -56248,7 +56248,7 @@
         </is>
       </c>
       <c r="AX344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -56410,7 +56410,7 @@
         </is>
       </c>
       <c r="AX345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -56572,7 +56572,7 @@
         </is>
       </c>
       <c r="AX346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -56734,7 +56734,7 @@
         </is>
       </c>
       <c r="AX347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -56896,7 +56896,7 @@
         </is>
       </c>
       <c r="AX348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -57058,7 +57058,7 @@
         </is>
       </c>
       <c r="AX349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -57192,7 +57192,7 @@
       </c>
       <c r="AQ350" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR350" t="n">
@@ -57220,7 +57220,7 @@
         </is>
       </c>
       <c r="AX350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -57354,7 +57354,7 @@
       </c>
       <c r="AQ351" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR351" t="n">
@@ -57368,12 +57368,12 @@
       </c>
       <c r="AU351" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV351" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW351" t="inlineStr">
@@ -57382,7 +57382,7 @@
         </is>
       </c>
       <c r="AX351" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -57544,7 +57544,7 @@
         </is>
       </c>
       <c r="AX352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -57706,7 +57706,7 @@
         </is>
       </c>
       <c r="AX353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -57868,7 +57868,7 @@
         </is>
       </c>
       <c r="AX354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -58016,12 +58016,12 @@
       </c>
       <c r="AU355" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV355" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW355" t="inlineStr">
@@ -58030,7 +58030,7 @@
         </is>
       </c>
       <c r="AX355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -58164,7 +58164,7 @@
       </c>
       <c r="AQ356" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR356" t="n">
@@ -58192,7 +58192,7 @@
         </is>
       </c>
       <c r="AX356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -58345,7 +58345,7 @@
       </c>
       <c r="AV357" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW357" t="inlineStr">
@@ -58354,7 +58354,7 @@
         </is>
       </c>
       <c r="AX357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR2" t="n">
@@ -830,12 +830,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR8" t="n">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR10" t="n">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="AX10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR11" t="n">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR15" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="AX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR17" t="n">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="AX21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR22" t="n">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR23" t="n">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="AX23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4394,12 +4394,12 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="AX28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR30" t="n">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AX30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR34" t="n">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="AX34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR35" t="n">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="AX35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR36" t="n">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="AX36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW39" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR41" t="n">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="AX41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR42" t="n">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR45" t="n">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="AX45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR48" t="n">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="AX48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR49" t="n">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="AX49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR52" t="n">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="AX52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR62" t="n">
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="AX62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR68" t="n">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="AX68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -11846,12 +11846,12 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="AX70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11994,7 +11994,7 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR71" t="n">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="AX71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR73" t="n">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="AU73" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="AX73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR74" t="n">
@@ -12508,7 +12508,7 @@
         </is>
       </c>
       <c r="AX74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -13142,12 +13142,12 @@
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR81" t="n">
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="AX81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR82" t="n">
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="AX82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR86" t="n">
@@ -14438,12 +14438,12 @@
       </c>
       <c r="AU86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="AX86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR87" t="n">
@@ -14600,12 +14600,12 @@
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -14614,7 +14614,7 @@
         </is>
       </c>
       <c r="AX87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -15086,12 +15086,12 @@
       </c>
       <c r="AU90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW90" t="inlineStr">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="AU93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR97" t="n">
@@ -16220,12 +16220,12 @@
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -16234,7 +16234,7 @@
         </is>
       </c>
       <c r="AX97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="AQ101" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR101" t="n">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="AX101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -17030,12 +17030,12 @@
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR104" t="n">
@@ -17354,12 +17354,12 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="AX104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR105" t="n">
@@ -17516,12 +17516,12 @@
       </c>
       <c r="AU105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW105" t="inlineStr">
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="AX105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR106" t="n">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="AU106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="AX106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR107" t="n">
@@ -17840,12 +17840,12 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -17854,7 +17854,7 @@
         </is>
       </c>
       <c r="AX107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -18002,12 +18002,12 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW108" t="inlineStr">
@@ -18488,12 +18488,12 @@
       </c>
       <c r="AU111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW111" t="inlineStr">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR112" t="n">
@@ -18650,12 +18650,12 @@
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -18664,7 +18664,7 @@
         </is>
       </c>
       <c r="AX112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -18798,7 +18798,7 @@
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR113" t="n">
@@ -18812,12 +18812,12 @@
       </c>
       <c r="AU113" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV113" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW113" t="inlineStr">
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="AX113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="AU114" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW114" t="inlineStr">
@@ -19136,12 +19136,12 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW115" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR116" t="n">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="AX116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR117" t="n">
@@ -19460,12 +19460,12 @@
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -19474,7 +19474,7 @@
         </is>
       </c>
       <c r="AX117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -19608,7 +19608,7 @@
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR118" t="n">
@@ -19636,7 +19636,7 @@
         </is>
       </c>
       <c r="AX118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="AQ120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR120" t="n">
@@ -19946,12 +19946,12 @@
       </c>
       <c r="AU120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV120" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW120" t="inlineStr">
@@ -19960,7 +19960,7 @@
         </is>
       </c>
       <c r="AX120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="AQ123" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR123" t="n">
@@ -20432,12 +20432,12 @@
       </c>
       <c r="AU123" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV123" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW123" t="inlineStr">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="AX123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="AU125" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV125" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW125" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR126" t="n">
@@ -20918,12 +20918,12 @@
       </c>
       <c r="AU126" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV126" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW126" t="inlineStr">
@@ -20932,7 +20932,7 @@
         </is>
       </c>
       <c r="AX126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="AQ128" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR128" t="n">
@@ -21242,12 +21242,12 @@
       </c>
       <c r="AU128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV128" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW128" t="inlineStr">
@@ -21256,7 +21256,7 @@
         </is>
       </c>
       <c r="AX128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="AQ129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR129" t="n">
@@ -21404,12 +21404,12 @@
       </c>
       <c r="AU129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV129" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW129" t="inlineStr">
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="AX129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="AQ131" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR131" t="n">
@@ -21728,12 +21728,12 @@
       </c>
       <c r="AU131" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV131" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW131" t="inlineStr">
@@ -21742,7 +21742,7 @@
         </is>
       </c>
       <c r="AX131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -21890,12 +21890,12 @@
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="AQ133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR133" t="n">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="AU133" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV133" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW133" t="inlineStr">
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="AX133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AQ140" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR140" t="n">
@@ -23186,12 +23186,12 @@
       </c>
       <c r="AU140" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV140" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW140" t="inlineStr">
@@ -23200,7 +23200,7 @@
         </is>
       </c>
       <c r="AX140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -23348,12 +23348,12 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
@@ -23510,12 +23510,12 @@
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -23658,7 +23658,7 @@
       </c>
       <c r="AQ143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR143" t="n">
@@ -23672,12 +23672,12 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
@@ -23686,7 +23686,7 @@
         </is>
       </c>
       <c r="AX143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="AQ144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR144" t="n">
@@ -23834,12 +23834,12 @@
       </c>
       <c r="AU144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW144" t="inlineStr">
@@ -23848,7 +23848,7 @@
         </is>
       </c>
       <c r="AX144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="AQ145" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR145" t="n">
@@ -23996,12 +23996,12 @@
       </c>
       <c r="AU145" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
@@ -24010,7 +24010,7 @@
         </is>
       </c>
       <c r="AX145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -24320,12 +24320,12 @@
       </c>
       <c r="AU147" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV147" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW147" t="inlineStr">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR152" t="n">
@@ -25130,12 +25130,12 @@
       </c>
       <c r="AU152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
@@ -25144,7 +25144,7 @@
         </is>
       </c>
       <c r="AX152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="AQ154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR154" t="n">
@@ -25454,12 +25454,12 @@
       </c>
       <c r="AU154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV154" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW154" t="inlineStr">
@@ -25468,7 +25468,7 @@
         </is>
       </c>
       <c r="AX154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -25778,12 +25778,12 @@
       </c>
       <c r="AU156" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV156" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW156" t="inlineStr">
@@ -26264,12 +26264,12 @@
       </c>
       <c r="AU159" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV159" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW159" t="inlineStr">
@@ -26412,7 +26412,7 @@
       </c>
       <c r="AQ160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR160" t="n">
@@ -26426,12 +26426,12 @@
       </c>
       <c r="AU160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV160" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW160" t="inlineStr">
@@ -26440,7 +26440,7 @@
         </is>
       </c>
       <c r="AX160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -27222,7 +27222,7 @@
       </c>
       <c r="AQ165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR165" t="n">
@@ -27236,12 +27236,12 @@
       </c>
       <c r="AU165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV165" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW165" t="inlineStr">
@@ -27250,7 +27250,7 @@
         </is>
       </c>
       <c r="AX165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR167" t="n">
@@ -27560,12 +27560,12 @@
       </c>
       <c r="AU167" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV167" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW167" t="inlineStr">
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="AX167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -27708,7 +27708,7 @@
       </c>
       <c r="AQ168" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR168" t="n">
@@ -27722,12 +27722,12 @@
       </c>
       <c r="AU168" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV168" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW168" t="inlineStr">
@@ -27736,7 +27736,7 @@
         </is>
       </c>
       <c r="AX168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -27884,12 +27884,12 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV169" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW169" t="inlineStr">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR170" t="n">
@@ -28046,12 +28046,12 @@
       </c>
       <c r="AU170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW170" t="inlineStr">
@@ -28060,7 +28060,7 @@
         </is>
       </c>
       <c r="AX170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -28370,12 +28370,12 @@
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
@@ -28518,7 +28518,7 @@
       </c>
       <c r="AQ173" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR173" t="n">
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="AX173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -28856,12 +28856,12 @@
       </c>
       <c r="AU175" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV175" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW175" t="inlineStr">
@@ -29018,12 +29018,12 @@
       </c>
       <c r="AU176" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV176" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW176" t="inlineStr">
@@ -29180,12 +29180,12 @@
       </c>
       <c r="AU177" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV177" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW177" t="inlineStr">
@@ -29504,12 +29504,12 @@
       </c>
       <c r="AU179" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV179" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW179" t="inlineStr">
@@ -29666,12 +29666,12 @@
       </c>
       <c r="AU180" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV180" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW180" t="inlineStr">
@@ -29828,12 +29828,12 @@
       </c>
       <c r="AU181" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV181" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW181" t="inlineStr">
@@ -29976,7 +29976,7 @@
       </c>
       <c r="AQ182" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR182" t="n">
@@ -29990,12 +29990,12 @@
       </c>
       <c r="AU182" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV182" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW182" t="inlineStr">
@@ -30004,7 +30004,7 @@
         </is>
       </c>
       <c r="AX182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR183" t="n">
@@ -30152,12 +30152,12 @@
       </c>
       <c r="AU183" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV183" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW183" t="inlineStr">
@@ -30166,7 +30166,7 @@
         </is>
       </c>
       <c r="AX183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -30314,12 +30314,12 @@
       </c>
       <c r="AU184" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV184" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW184" t="inlineStr">
@@ -30476,12 +30476,12 @@
       </c>
       <c r="AU185" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV185" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW185" t="inlineStr">
@@ -30638,12 +30638,12 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV186" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW186" t="inlineStr">
@@ -30962,12 +30962,12 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV188" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW188" t="inlineStr">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="AQ189" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR189" t="n">
@@ -31124,12 +31124,12 @@
       </c>
       <c r="AU189" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV189" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW189" t="inlineStr">
@@ -31138,7 +31138,7 @@
         </is>
       </c>
       <c r="AX189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -31434,7 +31434,7 @@
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR191" t="n">
@@ -31448,12 +31448,12 @@
       </c>
       <c r="AU191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV191" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW191" t="inlineStr">
@@ -31462,7 +31462,7 @@
         </is>
       </c>
       <c r="AX191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -31610,12 +31610,12 @@
       </c>
       <c r="AU192" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV192" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW192" t="inlineStr">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR194" t="n">
@@ -31934,12 +31934,12 @@
       </c>
       <c r="AU194" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV194" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW194" t="inlineStr">
@@ -31948,7 +31948,7 @@
         </is>
       </c>
       <c r="AX194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -32096,12 +32096,12 @@
       </c>
       <c r="AU195" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV195" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW195" t="inlineStr">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR196" t="n">
@@ -32258,12 +32258,12 @@
       </c>
       <c r="AU196" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV196" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW196" t="inlineStr">
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="AX196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -32406,7 +32406,7 @@
       </c>
       <c r="AQ197" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR197" t="n">
@@ -32420,12 +32420,12 @@
       </c>
       <c r="AU197" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV197" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW197" t="inlineStr">
@@ -32434,7 +32434,7 @@
         </is>
       </c>
       <c r="AX197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -32582,12 +32582,12 @@
       </c>
       <c r="AU198" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV198" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW198" t="inlineStr">
@@ -32744,12 +32744,12 @@
       </c>
       <c r="AU199" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV199" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW199" t="inlineStr">
@@ -32892,7 +32892,7 @@
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR200" t="n">
@@ -32906,12 +32906,12 @@
       </c>
       <c r="AU200" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV200" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW200" t="inlineStr">
@@ -32920,7 +32920,7 @@
         </is>
       </c>
       <c r="AX200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -33068,12 +33068,12 @@
       </c>
       <c r="AU201" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV201" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW201" t="inlineStr">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR202" t="n">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="AX202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -33554,12 +33554,12 @@
       </c>
       <c r="AU204" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV204" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW204" t="inlineStr">
@@ -33716,12 +33716,12 @@
       </c>
       <c r="AU205" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV205" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW205" t="inlineStr">
@@ -33878,12 +33878,12 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
@@ -34364,12 +34364,12 @@
       </c>
       <c r="AU209" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV209" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW209" t="inlineStr">
@@ -34850,12 +34850,12 @@
       </c>
       <c r="AU212" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV212" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW212" t="inlineStr">
@@ -35174,12 +35174,12 @@
       </c>
       <c r="AU214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
@@ -35322,7 +35322,7 @@
       </c>
       <c r="AQ215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR215" t="n">
@@ -35336,12 +35336,12 @@
       </c>
       <c r="AU215" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV215" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW215" t="inlineStr">
@@ -35350,7 +35350,7 @@
         </is>
       </c>
       <c r="AX215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -35484,7 +35484,7 @@
       </c>
       <c r="AQ216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR216" t="n">
@@ -35498,12 +35498,12 @@
       </c>
       <c r="AU216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV216" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW216" t="inlineStr">
@@ -35512,7 +35512,7 @@
         </is>
       </c>
       <c r="AX216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -35970,7 +35970,7 @@
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR219" t="n">
@@ -35998,7 +35998,7 @@
         </is>
       </c>
       <c r="AX219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -36146,12 +36146,12 @@
       </c>
       <c r="AU220" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV220" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW220" t="inlineStr">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="AQ221" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR221" t="n">
@@ -36322,7 +36322,7 @@
         </is>
       </c>
       <c r="AX221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -36794,12 +36794,12 @@
       </c>
       <c r="AU224" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV224" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW224" t="inlineStr">
@@ -36956,12 +36956,12 @@
       </c>
       <c r="AU225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV225" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW225" t="inlineStr">
@@ -37104,7 +37104,7 @@
       </c>
       <c r="AQ226" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR226" t="n">
@@ -37118,12 +37118,12 @@
       </c>
       <c r="AU226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV226" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW226" t="inlineStr">
@@ -37132,7 +37132,7 @@
         </is>
       </c>
       <c r="AX226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -37280,12 +37280,12 @@
       </c>
       <c r="AU227" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV227" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW227" t="inlineStr">
@@ -37428,7 +37428,7 @@
       </c>
       <c r="AQ228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR228" t="n">
@@ -37442,12 +37442,12 @@
       </c>
       <c r="AU228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV228" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW228" t="inlineStr">
@@ -37456,7 +37456,7 @@
         </is>
       </c>
       <c r="AX228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -37604,12 +37604,12 @@
       </c>
       <c r="AU229" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV229" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW229" t="inlineStr">
@@ -37928,12 +37928,12 @@
       </c>
       <c r="AU231" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV231" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW231" t="inlineStr">
@@ -38238,7 +38238,7 @@
       </c>
       <c r="AQ233" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR233" t="n">
@@ -38252,12 +38252,12 @@
       </c>
       <c r="AU233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW233" t="inlineStr">
@@ -38266,7 +38266,7 @@
         </is>
       </c>
       <c r="AX233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="AQ237" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR237" t="n">
@@ -38914,7 +38914,7 @@
         </is>
       </c>
       <c r="AX237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="AQ238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR238" t="n">
@@ -39062,12 +39062,12 @@
       </c>
       <c r="AU238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV238" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW238" t="inlineStr">
@@ -39076,7 +39076,7 @@
         </is>
       </c>
       <c r="AX238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -39224,12 +39224,12 @@
       </c>
       <c r="AU239" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV239" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW239" t="inlineStr">
@@ -39386,12 +39386,12 @@
       </c>
       <c r="AU240" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV240" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW240" t="inlineStr">
@@ -39534,7 +39534,7 @@
       </c>
       <c r="AQ241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR241" t="n">
@@ -39548,12 +39548,12 @@
       </c>
       <c r="AU241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW241" t="inlineStr">
@@ -39562,7 +39562,7 @@
         </is>
       </c>
       <c r="AX241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="AQ243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR243" t="n">
@@ -39872,12 +39872,12 @@
       </c>
       <c r="AU243" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV243" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW243" t="inlineStr">
@@ -39886,7 +39886,7 @@
         </is>
       </c>
       <c r="AX243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -40344,7 +40344,7 @@
       </c>
       <c r="AQ246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR246" t="n">
@@ -40358,12 +40358,12 @@
       </c>
       <c r="AU246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV246" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW246" t="inlineStr">
@@ -40372,7 +40372,7 @@
         </is>
       </c>
       <c r="AX246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -40506,7 +40506,7 @@
       </c>
       <c r="AQ247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR247" t="n">
@@ -40520,12 +40520,12 @@
       </c>
       <c r="AU247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV247" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW247" t="inlineStr">
@@ -40534,7 +40534,7 @@
         </is>
       </c>
       <c r="AX247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="AQ248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR248" t="n">
@@ -40682,12 +40682,12 @@
       </c>
       <c r="AU248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV248" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW248" t="inlineStr">
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="AX248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -40992,7 +40992,7 @@
       </c>
       <c r="AQ250" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR250" t="n">
@@ -41020,7 +41020,7 @@
         </is>
       </c>
       <c r="AX250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -41330,12 +41330,12 @@
       </c>
       <c r="AU252" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV252" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW252" t="inlineStr">
@@ -41640,7 +41640,7 @@
       </c>
       <c r="AQ254" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR254" t="n">
@@ -41654,12 +41654,12 @@
       </c>
       <c r="AU254" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV254" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW254" t="inlineStr">
@@ -41668,7 +41668,7 @@
         </is>
       </c>
       <c r="AX254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -42950,12 +42950,12 @@
       </c>
       <c r="AU262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV262" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW262" t="inlineStr">
@@ -43760,12 +43760,12 @@
       </c>
       <c r="AU267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV267" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW267" t="inlineStr">
@@ -44070,7 +44070,7 @@
       </c>
       <c r="AQ269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR269" t="n">
@@ -44084,12 +44084,12 @@
       </c>
       <c r="AU269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV269" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW269" t="inlineStr">
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="AX269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -44408,12 +44408,12 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV271" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW271" t="inlineStr">
@@ -44556,7 +44556,7 @@
       </c>
       <c r="AQ272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR272" t="n">
@@ -44570,12 +44570,12 @@
       </c>
       <c r="AU272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV272" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW272" t="inlineStr">
@@ -44584,7 +44584,7 @@
         </is>
       </c>
       <c r="AX272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -44732,12 +44732,12 @@
       </c>
       <c r="AU273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV273" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW273" t="inlineStr">
@@ -45204,7 +45204,7 @@
       </c>
       <c r="AQ276" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR276" t="n">
@@ -45218,12 +45218,12 @@
       </c>
       <c r="AU276" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV276" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW276" t="inlineStr">
@@ -45232,7 +45232,7 @@
         </is>
       </c>
       <c r="AX276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -45380,12 +45380,12 @@
       </c>
       <c r="AU277" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV277" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW277" t="inlineStr">
@@ -45866,12 +45866,12 @@
       </c>
       <c r="AU280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW280" t="inlineStr">
@@ -46014,7 +46014,7 @@
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR281" t="n">
@@ -46028,12 +46028,12 @@
       </c>
       <c r="AU281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW281" t="inlineStr">
@@ -46042,7 +46042,7 @@
         </is>
       </c>
       <c r="AX281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -46190,12 +46190,12 @@
       </c>
       <c r="AU282" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV282" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW282" t="inlineStr">
@@ -46352,12 +46352,12 @@
       </c>
       <c r="AU283" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV283" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW283" t="inlineStr">
@@ -46676,12 +46676,12 @@
       </c>
       <c r="AU285" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV285" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW285" t="inlineStr">
@@ -46838,12 +46838,12 @@
       </c>
       <c r="AU286" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV286" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW286" t="inlineStr">
@@ -47000,12 +47000,12 @@
       </c>
       <c r="AU287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV287" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW287" t="inlineStr">
@@ -47162,12 +47162,12 @@
       </c>
       <c r="AU288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV288" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW288" t="inlineStr">
@@ -47310,7 +47310,7 @@
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR289" t="n">
@@ -47324,12 +47324,12 @@
       </c>
       <c r="AU289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV289" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW289" t="inlineStr">
@@ -47338,7 +47338,7 @@
         </is>
       </c>
       <c r="AX289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -47472,7 +47472,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR290" t="n">
@@ -47486,12 +47486,12 @@
       </c>
       <c r="AU290" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV290" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW290" t="inlineStr">
@@ -47500,7 +47500,7 @@
         </is>
       </c>
       <c r="AX290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -47634,7 +47634,7 @@
       </c>
       <c r="AQ291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR291" t="n">
@@ -47648,12 +47648,12 @@
       </c>
       <c r="AU291" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV291" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW291" t="inlineStr">
@@ -47662,7 +47662,7 @@
         </is>
       </c>
       <c r="AX291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -47810,12 +47810,12 @@
       </c>
       <c r="AU292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV292" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW292" t="inlineStr">
@@ -47958,7 +47958,7 @@
       </c>
       <c r="AQ293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR293" t="n">
@@ -47972,12 +47972,12 @@
       </c>
       <c r="AU293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV293" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW293" t="inlineStr">
@@ -47986,7 +47986,7 @@
         </is>
       </c>
       <c r="AX293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -48134,12 +48134,12 @@
       </c>
       <c r="AU294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW294" t="inlineStr">
@@ -48444,7 +48444,7 @@
       </c>
       <c r="AQ296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR296" t="n">
@@ -48458,12 +48458,12 @@
       </c>
       <c r="AU296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV296" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW296" t="inlineStr">
@@ -48472,7 +48472,7 @@
         </is>
       </c>
       <c r="AX296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -48930,7 +48930,7 @@
       </c>
       <c r="AQ299" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR299" t="n">
@@ -48944,12 +48944,12 @@
       </c>
       <c r="AU299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV299" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW299" t="inlineStr">
@@ -48958,7 +48958,7 @@
         </is>
       </c>
       <c r="AX299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -49092,7 +49092,7 @@
       </c>
       <c r="AQ300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR300" t="n">
@@ -49106,12 +49106,12 @@
       </c>
       <c r="AU300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV300" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW300" t="inlineStr">
@@ -49120,7 +49120,7 @@
         </is>
       </c>
       <c r="AX300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -49268,12 +49268,12 @@
       </c>
       <c r="AU301" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV301" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW301" t="inlineStr">
@@ -49740,7 +49740,7 @@
       </c>
       <c r="AQ304" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR304" t="n">
@@ -49754,12 +49754,12 @@
       </c>
       <c r="AU304" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV304" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW304" t="inlineStr">
@@ -49768,7 +49768,7 @@
         </is>
       </c>
       <c r="AX304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -49916,12 +49916,12 @@
       </c>
       <c r="AU305" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV305" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW305" t="inlineStr">
@@ -50078,12 +50078,12 @@
       </c>
       <c r="AU306" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV306" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW306" t="inlineStr">
@@ -50240,12 +50240,12 @@
       </c>
       <c r="AU307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV307" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW307" t="inlineStr">
@@ -50550,7 +50550,7 @@
       </c>
       <c r="AQ309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR309" t="n">
@@ -50578,7 +50578,7 @@
         </is>
       </c>
       <c r="AX309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -50726,12 +50726,12 @@
       </c>
       <c r="AU310" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV310" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW310" t="inlineStr">
@@ -50888,12 +50888,12 @@
       </c>
       <c r="AU311" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV311" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW311" t="inlineStr">
@@ -51036,7 +51036,7 @@
       </c>
       <c r="AQ312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR312" t="n">
@@ -51050,12 +51050,12 @@
       </c>
       <c r="AU312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV312" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW312" t="inlineStr">
@@ -51064,7 +51064,7 @@
         </is>
       </c>
       <c r="AX312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -51198,7 +51198,7 @@
       </c>
       <c r="AQ313" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR313" t="n">
@@ -51212,12 +51212,12 @@
       </c>
       <c r="AU313" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV313" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW313" t="inlineStr">
@@ -51226,7 +51226,7 @@
         </is>
       </c>
       <c r="AX313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -51374,12 +51374,12 @@
       </c>
       <c r="AU314" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV314" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW314" t="inlineStr">
@@ -51522,7 +51522,7 @@
       </c>
       <c r="AQ315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR315" t="n">
@@ -51536,12 +51536,12 @@
       </c>
       <c r="AU315" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV315" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW315" t="inlineStr">
@@ -51550,7 +51550,7 @@
         </is>
       </c>
       <c r="AX315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -51684,7 +51684,7 @@
       </c>
       <c r="AQ316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR316" t="n">
@@ -51698,12 +51698,12 @@
       </c>
       <c r="AU316" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV316" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW316" t="inlineStr">
@@ -51712,7 +51712,7 @@
         </is>
       </c>
       <c r="AX316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -52022,12 +52022,12 @@
       </c>
       <c r="AU318" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV318" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW318" t="inlineStr">
@@ -52346,12 +52346,12 @@
       </c>
       <c r="AU320" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV320" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW320" t="inlineStr">
@@ -52508,12 +52508,12 @@
       </c>
       <c r="AU321" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV321" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW321" t="inlineStr">
@@ -52670,12 +52670,12 @@
       </c>
       <c r="AU322" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV322" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW322" t="inlineStr">
@@ -52832,12 +52832,12 @@
       </c>
       <c r="AU323" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV323" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW323" t="inlineStr">
@@ -53156,12 +53156,12 @@
       </c>
       <c r="AU325" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV325" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW325" t="inlineStr">
@@ -53466,7 +53466,7 @@
       </c>
       <c r="AQ327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR327" t="n">
@@ -53480,12 +53480,12 @@
       </c>
       <c r="AU327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW327" t="inlineStr">
@@ -53494,7 +53494,7 @@
         </is>
       </c>
       <c r="AX327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -53628,7 +53628,7 @@
       </c>
       <c r="AQ328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR328" t="n">
@@ -53642,12 +53642,12 @@
       </c>
       <c r="AU328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV328" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW328" t="inlineStr">
@@ -53656,7 +53656,7 @@
         </is>
       </c>
       <c r="AX328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -53790,7 +53790,7 @@
       </c>
       <c r="AQ329" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR329" t="n">
@@ -53818,7 +53818,7 @@
         </is>
       </c>
       <c r="AX329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -54452,12 +54452,12 @@
       </c>
       <c r="AU333" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV333" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW333" t="inlineStr">
@@ -54600,7 +54600,7 @@
       </c>
       <c r="AQ334" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR334" t="n">
@@ -54614,12 +54614,12 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV334" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW334" t="inlineStr">
@@ -54628,7 +54628,7 @@
         </is>
       </c>
       <c r="AX334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -54762,7 +54762,7 @@
       </c>
       <c r="AQ335" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR335" t="n">
@@ -54790,7 +54790,7 @@
         </is>
       </c>
       <c r="AX335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -55086,7 +55086,7 @@
       </c>
       <c r="AQ337" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR337" t="n">
@@ -55100,12 +55100,12 @@
       </c>
       <c r="AU337" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV337" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW337" t="inlineStr">
@@ -55114,7 +55114,7 @@
         </is>
       </c>
       <c r="AX337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -55248,7 +55248,7 @@
       </c>
       <c r="AQ338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR338" t="n">
@@ -55262,12 +55262,12 @@
       </c>
       <c r="AU338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV338" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW338" t="inlineStr">
@@ -55276,7 +55276,7 @@
         </is>
       </c>
       <c r="AX338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -55410,7 +55410,7 @@
       </c>
       <c r="AQ339" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR339" t="n">
@@ -55424,12 +55424,12 @@
       </c>
       <c r="AU339" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV339" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW339" t="inlineStr">
@@ -55438,7 +55438,7 @@
         </is>
       </c>
       <c r="AX339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -55734,7 +55734,7 @@
       </c>
       <c r="AQ341" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR341" t="n">
@@ -55762,7 +55762,7 @@
         </is>
       </c>
       <c r="AX341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -55896,7 +55896,7 @@
       </c>
       <c r="AQ342" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR342" t="n">
@@ -55924,7 +55924,7 @@
         </is>
       </c>
       <c r="AX342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -56382,7 +56382,7 @@
       </c>
       <c r="AQ345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR345" t="n">
@@ -56396,12 +56396,12 @@
       </c>
       <c r="AU345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV345" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW345" t="inlineStr">
@@ -56410,7 +56410,7 @@
         </is>
       </c>
       <c r="AX345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -56544,7 +56544,7 @@
       </c>
       <c r="AQ346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR346" t="n">
@@ -56558,12 +56558,12 @@
       </c>
       <c r="AU346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV346" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW346" t="inlineStr">
@@ -56572,7 +56572,7 @@
         </is>
       </c>
       <c r="AX346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -56706,7 +56706,7 @@
       </c>
       <c r="AQ347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR347" t="n">
@@ -56720,12 +56720,12 @@
       </c>
       <c r="AU347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV347" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW347" t="inlineStr">
@@ -56734,7 +56734,7 @@
         </is>
       </c>
       <c r="AX347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -57354,7 +57354,7 @@
       </c>
       <c r="AQ351" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR351" t="n">
@@ -57368,12 +57368,12 @@
       </c>
       <c r="AU351" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV351" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW351" t="inlineStr">
@@ -57382,7 +57382,7 @@
         </is>
       </c>
       <c r="AX351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -57516,7 +57516,7 @@
       </c>
       <c r="AQ352" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR352" t="n">
@@ -57544,7 +57544,7 @@
         </is>
       </c>
       <c r="AX352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -57678,7 +57678,7 @@
       </c>
       <c r="AQ353" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR353" t="n">
@@ -57706,7 +57706,7 @@
         </is>
       </c>
       <c r="AX353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -58016,12 +58016,12 @@
       </c>
       <c r="AU355" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV355" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW355" t="inlineStr">
@@ -58164,7 +58164,7 @@
       </c>
       <c r="AQ356" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR356" t="n">
@@ -58192,7 +58192,7 @@
         </is>
       </c>
       <c r="AX356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -58340,12 +58340,12 @@
       </c>
       <c r="AU357" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV357" t="inlineStr">
         <is>
-          <t>organico_alto_street</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW357" t="inlineStr">

--- a/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Boston_MA/Boston_MA_datos_procesados.xlsx
@@ -830,12 +830,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR10" t="n">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR11" t="n">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR23" t="n">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="AX23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR34" t="n">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="AX34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR36" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW39" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR41" t="n">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="AX41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR42" t="n">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR54" t="n">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="AX54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR59" t="n">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="AX59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR62" t="n">
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="AX62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR63" t="n">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="AX63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -11846,12 +11846,12 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="AX70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -11994,7 +11994,7 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR71" t="n">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="AX71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -13142,12 +13142,12 @@
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR82" t="n">
@@ -13804,7 +13804,7 @@
         </is>
       </c>
       <c r="AX82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -15091,7 +15091,7 @@
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW90" t="inlineStr">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="AU93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -16225,7 +16225,7 @@
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -17030,12 +17030,12 @@
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR104" t="n">
@@ -17354,12 +17354,12 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="AX104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -17516,12 +17516,12 @@
       </c>
       <c r="AU105" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW105" t="inlineStr">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
@@ -17840,12 +17840,12 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR108" t="n">
@@ -18002,12 +18002,12 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW108" t="inlineStr">
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="AX108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -18488,12 +18488,12 @@
       </c>
       <c r="AU111" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV111" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW111" t="inlineStr">
@@ -18636,7 +18636,7 @@
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR112" t="n">
@@ -18650,12 +18650,12 @@
       </c>
       <c r="AU112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW112" t="inlineStr">
@@ -18664,7 +18664,7 @@
         </is>
       </c>
       <c r="AX112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -18812,12 +18812,12 @@
       </c>
       <c r="AU113" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV113" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW113" t="inlineStr">
@@ -18960,7 +18960,7 @@
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR114" t="n">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="AU114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW114" t="inlineStr">
@@ -18988,7 +18988,7 @@
         </is>
       </c>
       <c r="AX114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -19136,12 +19136,12 @@
       </c>
       <c r="AU115" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV115" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW115" t="inlineStr">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR116" t="n">
@@ -19312,7 +19312,7 @@
         </is>
       </c>
       <c r="AX116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -19460,12 +19460,12 @@
       </c>
       <c r="AU117" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV117" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW117" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR119" t="n">
@@ -19798,7 +19798,7 @@
         </is>
       </c>
       <c r="AX119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="AV120" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW120" t="inlineStr">
@@ -20437,7 +20437,7 @@
       </c>
       <c r="AV123" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW123" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="AU125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW125" t="inlineStr">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="AV126" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW126" t="inlineStr">
@@ -21247,7 +21247,7 @@
       </c>
       <c r="AV128" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW128" t="inlineStr">
@@ -21409,7 +21409,7 @@
       </c>
       <c r="AV129" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW129" t="inlineStr">
@@ -21728,12 +21728,12 @@
       </c>
       <c r="AU131" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV131" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW131" t="inlineStr">
@@ -21890,12 +21890,12 @@
       </c>
       <c r="AU132" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV132" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW132" t="inlineStr">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="AQ133" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR133" t="n">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="AU133" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV133" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW133" t="inlineStr">
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="AX133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -22538,12 +22538,12 @@
       </c>
       <c r="AU136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW136" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="AQ138" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR138" t="n">
@@ -22876,7 +22876,7 @@
         </is>
       </c>
       <c r="AX138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -23186,12 +23186,12 @@
       </c>
       <c r="AU140" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV140" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW140" t="inlineStr">
@@ -23348,12 +23348,12 @@
       </c>
       <c r="AU141" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV141" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW141" t="inlineStr">
@@ -23510,12 +23510,12 @@
       </c>
       <c r="AU142" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV142" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW142" t="inlineStr">
@@ -23672,12 +23672,12 @@
       </c>
       <c r="AU143" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV143" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW143" t="inlineStr">
@@ -23834,12 +23834,12 @@
       </c>
       <c r="AU144" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV144" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW144" t="inlineStr">
@@ -23996,12 +23996,12 @@
       </c>
       <c r="AU145" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV145" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW145" t="inlineStr">
@@ -24320,12 +24320,12 @@
       </c>
       <c r="AU147" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV147" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW147" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="AV152" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW152" t="inlineStr">
@@ -25459,7 +25459,7 @@
       </c>
       <c r="AV154" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW154" t="inlineStr">
@@ -25778,12 +25778,12 @@
       </c>
       <c r="AU156" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV156" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW156" t="inlineStr">
@@ -26264,12 +26264,12 @@
       </c>
       <c r="AU159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW159" t="inlineStr">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="AV160" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW160" t="inlineStr">
@@ -27241,7 +27241,7 @@
       </c>
       <c r="AV165" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW165" t="inlineStr">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR167" t="n">
@@ -27560,12 +27560,12 @@
       </c>
       <c r="AU167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW167" t="inlineStr">
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="AX167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="AV168" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW168" t="inlineStr">
@@ -27884,12 +27884,12 @@
       </c>
       <c r="AU169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW169" t="inlineStr">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR170" t="n">
@@ -28046,12 +28046,12 @@
       </c>
       <c r="AU170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW170" t="inlineStr">
@@ -28060,7 +28060,7 @@
         </is>
       </c>
       <c r="AX170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -28370,12 +28370,12 @@
       </c>
       <c r="AU172" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV172" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW172" t="inlineStr">
@@ -28856,12 +28856,12 @@
       </c>
       <c r="AU175" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV175" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW175" t="inlineStr">
@@ -29018,12 +29018,12 @@
       </c>
       <c r="AU176" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV176" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW176" t="inlineStr">
@@ -29180,12 +29180,12 @@
       </c>
       <c r="AU177" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV177" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW177" t="inlineStr">
@@ -29504,12 +29504,12 @@
       </c>
       <c r="AU179" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV179" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW179" t="inlineStr">
@@ -29666,12 +29666,12 @@
       </c>
       <c r="AU180" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV180" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW180" t="inlineStr">
@@ -29828,12 +29828,12 @@
       </c>
       <c r="AU181" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV181" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW181" t="inlineStr">
@@ -29990,12 +29990,12 @@
       </c>
       <c r="AU182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW182" t="inlineStr">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR183" t="n">
@@ -30152,12 +30152,12 @@
       </c>
       <c r="AU183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW183" t="inlineStr">
@@ -30166,7 +30166,7 @@
         </is>
       </c>
       <c r="AX183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -30314,12 +30314,12 @@
       </c>
       <c r="AU184" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV184" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW184" t="inlineStr">
@@ -30476,12 +30476,12 @@
       </c>
       <c r="AU185" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV185" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW185" t="inlineStr">
@@ -30638,12 +30638,12 @@
       </c>
       <c r="AU186" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV186" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW186" t="inlineStr">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="AQ188" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR188" t="n">
@@ -30962,12 +30962,12 @@
       </c>
       <c r="AU188" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV188" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW188" t="inlineStr">
@@ -30976,7 +30976,7 @@
         </is>
       </c>
       <c r="AX188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -31124,12 +31124,12 @@
       </c>
       <c r="AU189" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV189" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW189" t="inlineStr">
@@ -31453,7 +31453,7 @@
       </c>
       <c r="AV191" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW191" t="inlineStr">
@@ -31610,12 +31610,12 @@
       </c>
       <c r="AU192" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV192" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW192" t="inlineStr">
@@ -31939,7 +31939,7 @@
       </c>
       <c r="AV194" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW194" t="inlineStr">
@@ -32096,12 +32096,12 @@
       </c>
       <c r="AU195" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV195" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW195" t="inlineStr">
@@ -32258,12 +32258,12 @@
       </c>
       <c r="AU196" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV196" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW196" t="inlineStr">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="AV197" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW197" t="inlineStr">
@@ -32582,12 +32582,12 @@
       </c>
       <c r="AU198" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV198" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW198" t="inlineStr">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="AV199" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW199" t="inlineStr">
@@ -32906,12 +32906,12 @@
       </c>
       <c r="AU200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW200" t="inlineStr">
@@ -33068,12 +33068,12 @@
       </c>
       <c r="AU201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW201" t="inlineStr">
@@ -33559,7 +33559,7 @@
       </c>
       <c r="AV204" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW204" t="inlineStr">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="AV205" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW205" t="inlineStr">
@@ -33878,12 +33878,12 @@
       </c>
       <c r="AU206" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV206" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW206" t="inlineStr">
@@ -34364,12 +34364,12 @@
       </c>
       <c r="AU209" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV209" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW209" t="inlineStr">
@@ -34850,12 +34850,12 @@
       </c>
       <c r="AU212" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV212" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW212" t="inlineStr">
@@ -35174,12 +35174,12 @@
       </c>
       <c r="AU214" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV214" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW214" t="inlineStr">
@@ -35336,12 +35336,12 @@
       </c>
       <c r="AU215" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV215" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW215" t="inlineStr">
@@ -35484,7 +35484,7 @@
       </c>
       <c r="AQ216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR216" t="n">
@@ -35498,12 +35498,12 @@
       </c>
       <c r="AU216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV216" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW216" t="inlineStr">
@@ -35512,7 +35512,7 @@
         </is>
       </c>
       <c r="AX216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -35970,7 +35970,7 @@
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR219" t="n">
@@ -35998,7 +35998,7 @@
         </is>
       </c>
       <c r="AX219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -36151,7 +36151,7 @@
       </c>
       <c r="AV220" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW220" t="inlineStr">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="AQ221" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR221" t="n">
@@ -36322,7 +36322,7 @@
         </is>
       </c>
       <c r="AX221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -36794,12 +36794,12 @@
       </c>
       <c r="AU224" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV224" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW224" t="inlineStr">
@@ -36956,12 +36956,12 @@
       </c>
       <c r="AU225" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV225" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW225" t="inlineStr">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="AV226" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW226" t="inlineStr">
@@ -37280,12 +37280,12 @@
       </c>
       <c r="AU227" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV227" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW227" t="inlineStr">
@@ -37447,7 +37447,7 @@
       </c>
       <c r="AV228" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW228" t="inlineStr">
@@ -37604,12 +37604,12 @@
       </c>
       <c r="AU229" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV229" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW229" t="inlineStr">
@@ -37928,12 +37928,12 @@
       </c>
       <c r="AU231" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV231" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW231" t="inlineStr">
@@ -38238,7 +38238,7 @@
       </c>
       <c r="AQ233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR233" t="n">
@@ -38252,12 +38252,12 @@
       </c>
       <c r="AU233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW233" t="inlineStr">
@@ -38266,7 +38266,7 @@
         </is>
       </c>
       <c r="AX233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -39062,12 +39062,12 @@
       </c>
       <c r="AU238" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV238" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW238" t="inlineStr">
@@ -39224,12 +39224,12 @@
       </c>
       <c r="AU239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW239" t="inlineStr">
@@ -39386,12 +39386,12 @@
       </c>
       <c r="AU240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW240" t="inlineStr">
@@ -39548,12 +39548,12 @@
       </c>
       <c r="AU241" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV241" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW241" t="inlineStr">
@@ -39872,12 +39872,12 @@
       </c>
       <c r="AU243" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV243" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW243" t="inlineStr">
@@ -40363,7 +40363,7 @@
       </c>
       <c r="AV246" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW246" t="inlineStr">
@@ -40525,7 +40525,7 @@
       </c>
       <c r="AV247" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW247" t="inlineStr">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="AQ248" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR248" t="n">
@@ -40687,7 +40687,7 @@
       </c>
       <c r="AV248" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW248" t="inlineStr">
@@ -40696,7 +40696,7 @@
         </is>
       </c>
       <c r="AX248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -41335,7 +41335,7 @@
       </c>
       <c r="AV252" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW252" t="inlineStr">
@@ -41640,7 +41640,7 @@
       </c>
       <c r="AQ254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR254" t="n">
@@ -41654,12 +41654,12 @@
       </c>
       <c r="AU254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV254" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW254" t="inlineStr">
@@ -41668,7 +41668,7 @@
         </is>
       </c>
       <c r="AX254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -42955,7 +42955,7 @@
       </c>
       <c r="AV262" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW262" t="inlineStr">
@@ -43765,7 +43765,7 @@
       </c>
       <c r="AV267" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW267" t="inlineStr">
@@ -44070,7 +44070,7 @@
       </c>
       <c r="AQ269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR269" t="n">
@@ -44084,12 +44084,12 @@
       </c>
       <c r="AU269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV269" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW269" t="inlineStr">
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="AX269" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -44408,12 +44408,12 @@
       </c>
       <c r="AU271" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV271" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW271" t="inlineStr">
@@ -44556,7 +44556,7 @@
       </c>
       <c r="AQ272" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR272" t="n">
@@ -44575,7 +44575,7 @@
       </c>
       <c r="AV272" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW272" t="inlineStr">
@@ -44584,7 +44584,7 @@
         </is>
       </c>
       <c r="AX272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -44732,12 +44732,12 @@
       </c>
       <c r="AU273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV273" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW273" t="inlineStr">
@@ -45204,7 +45204,7 @@
       </c>
       <c r="AQ276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR276" t="n">
@@ -45218,12 +45218,12 @@
       </c>
       <c r="AU276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW276" t="inlineStr">
@@ -45232,7 +45232,7 @@
         </is>
       </c>
       <c r="AX276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -45380,12 +45380,12 @@
       </c>
       <c r="AU277" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV277" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW277" t="inlineStr">
@@ -45866,12 +45866,12 @@
       </c>
       <c r="AU280" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV280" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW280" t="inlineStr">
@@ -46014,7 +46014,7 @@
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR281" t="n">
@@ -46028,12 +46028,12 @@
       </c>
       <c r="AU281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW281" t="inlineStr">
@@ -46042,7 +46042,7 @@
         </is>
       </c>
       <c r="AX281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -46190,12 +46190,12 @@
       </c>
       <c r="AU282" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV282" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW282" t="inlineStr">
@@ -46357,7 +46357,7 @@
       </c>
       <c r="AV283" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW283" t="inlineStr">
@@ -46500,7 +46500,7 @@
       </c>
       <c r="AQ284" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR284" t="n">
@@ -46528,7 +46528,7 @@
         </is>
       </c>
       <c r="AX284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -46676,12 +46676,12 @@
       </c>
       <c r="AU285" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV285" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW285" t="inlineStr">
@@ -46838,12 +46838,12 @@
       </c>
       <c r="AU286" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV286" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW286" t="inlineStr">
@@ -47000,12 +47000,12 @@
       </c>
       <c r="AU287" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV287" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW287" t="inlineStr">
@@ -47162,12 +47162,12 @@
       </c>
       <c r="AU288" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV288" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW288" t="inlineStr">
@@ -47329,7 +47329,7 @@
       </c>
       <c r="AV289" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW289" t="inlineStr">
@@ -47472,7 +47472,7 @@
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR290" t="n">
@@ -47486,12 +47486,12 @@
       </c>
       <c r="AU290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW290" t="inlineStr">
@@ -47500,7 +47500,7 @@
         </is>
       </c>
       <c r="AX290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -47634,7 +47634,7 @@
       </c>
       <c r="AQ291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR291" t="n">
@@ -47648,12 +47648,12 @@
       </c>
       <c r="AU291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW291" t="inlineStr">
@@ -47662,7 +47662,7 @@
         </is>
       </c>
       <c r="AX291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -47810,12 +47810,12 @@
       </c>
       <c r="AU292" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV292" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW292" t="inlineStr">
@@ -47977,7 +47977,7 @@
       </c>
       <c r="AV293" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW293" t="inlineStr">
@@ -48120,7 +48120,7 @@
       </c>
       <c r="AQ294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR294" t="n">
@@ -48134,12 +48134,12 @@
       </c>
       <c r="AU294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW294" t="inlineStr">
@@ -48148,7 +48148,7 @@
         </is>
       </c>
       <c r="AX294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -48463,7 +48463,7 @@
       </c>
       <c r="AV296" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW296" t="inlineStr">
@@ -48930,7 +48930,7 @@
       </c>
       <c r="AQ299" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR299" t="n">
@@ -48949,7 +48949,7 @@
       </c>
       <c r="AV299" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW299" t="inlineStr">
@@ -48958,7 +48958,7 @@
         </is>
       </c>
       <c r="AX299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -49111,7 +49111,7 @@
       </c>
       <c r="AV300" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW300" t="inlineStr">
@@ -49254,7 +49254,7 @@
       </c>
       <c r="AQ301" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR301" t="n">
@@ -49268,12 +49268,12 @@
       </c>
       <c r="AU301" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV301" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW301" t="inlineStr">
@@ -49282,7 +49282,7 @@
         </is>
       </c>
       <c r="AX301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -49754,12 +49754,12 @@
       </c>
       <c r="AU304" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV304" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW304" t="inlineStr">
@@ -49921,7 +49921,7 @@
       </c>
       <c r="AV305" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW305" t="inlineStr">
@@ -50083,7 +50083,7 @@
       </c>
       <c r="AV306" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW306" t="inlineStr">
@@ -50245,7 +50245,7 @@
       </c>
       <c r="AV307" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW307" t="inlineStr">
@@ -50731,7 +50731,7 @@
       </c>
       <c r="AV310" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW310" t="inlineStr">
@@ -50893,7 +50893,7 @@
       </c>
       <c r="AV311" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW311" t="inlineStr">
@@ -51055,7 +51055,7 @@
       </c>
       <c r="AV312" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW312" t="inlineStr">
@@ -51212,12 +51212,12 @@
       </c>
       <c r="AU313" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV313" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW313" t="inlineStr">
@@ -51374,12 +51374,12 @@
       </c>
       <c r="AU314" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV314" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW314" t="inlineStr">
@@ -51536,12 +51536,12 @@
       </c>
       <c r="AU315" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV315" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW315" t="inlineStr">
@@ -51684,7 +51684,7 @@
       </c>
       <c r="AQ316" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR316" t="n">
@@ -51698,12 +51698,12 @@
       </c>
       <c r="AU316" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV316" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW316" t="inlineStr">
@@ -51712,7 +51712,7 @@
         </is>
       </c>
       <c r="AX316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -52022,12 +52022,12 @@
       </c>
       <c r="AU318" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV318" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW318" t="inlineStr">
@@ -52346,12 +52346,12 @@
       </c>
       <c r="AU320" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV320" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW320" t="inlineStr">
@@ -52494,7 +52494,7 @@
       </c>
       <c r="AQ321" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR321" t="n">
@@ -52508,12 +52508,12 @@
       </c>
       <c r="AU321" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV321" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW321" t="inlineStr">
@@ -52522,7 +52522,7 @@
         </is>
       </c>
       <c r="AX321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -52670,12 +52670,12 @@
       </c>
       <c r="AU322" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV322" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW322" t="inlineStr">
@@ -52832,12 +52832,12 @@
       </c>
       <c r="AU323" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV323" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW323" t="inlineStr">
@@ -53156,12 +53156,12 @@
       </c>
       <c r="AU325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW325" t="inlineStr">
@@ -53466,7 +53466,7 @@
       </c>
       <c r="AQ327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR327" t="n">
@@ -53480,12 +53480,12 @@
       </c>
       <c r="AU327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW327" t="inlineStr">
@@ -53494,7 +53494,7 @@
         </is>
       </c>
       <c r="AX327" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -53628,7 +53628,7 @@
       </c>
       <c r="AQ328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR328" t="n">
@@ -53642,12 +53642,12 @@
       </c>
       <c r="AU328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV328" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW328" t="inlineStr">
@@ -53656,7 +53656,7 @@
         </is>
       </c>
       <c r="AX328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -53790,7 +53790,7 @@
       </c>
       <c r="AQ329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR329" t="n">
@@ -53818,7 +53818,7 @@
         </is>
       </c>
       <c r="AX329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -54452,12 +54452,12 @@
       </c>
       <c r="AU333" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV333" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW333" t="inlineStr">
@@ -54600,7 +54600,7 @@
       </c>
       <c r="AQ334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR334" t="n">
@@ -54614,12 +54614,12 @@
       </c>
       <c r="AU334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW334" t="inlineStr">
@@ -54628,7 +54628,7 @@
         </is>
       </c>
       <c r="AX334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -55086,7 +55086,7 @@
       </c>
       <c r="AQ337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR337" t="n">
@@ -55100,12 +55100,12 @@
       </c>
       <c r="AU337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW337" t="inlineStr">
@@ -55114,7 +55114,7 @@
         </is>
       </c>
       <c r="AX337" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -55267,7 +55267,7 @@
       </c>
       <c r="AV338" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW338" t="inlineStr">
@@ -55424,12 +55424,12 @@
       </c>
       <c r="AU339" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV339" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW339" t="inlineStr">
@@ -55734,7 +55734,7 @@
       </c>
       <c r="AQ341" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR341" t="n">
@@ -55762,7 +55762,7 @@
         </is>
       </c>
       <c r="AX341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -56401,7 +56401,7 @@
       </c>
       <c r="AV345" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW345" t="inlineStr">
@@ -56544,7 +56544,7 @@
       </c>
       <c r="AQ346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR346" t="n">
@@ -56563,7 +56563,7 @@
       </c>
       <c r="AV346" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW346" t="inlineStr">
@@ -56572,7 +56572,7 @@
         </is>
       </c>
       <c r="AX346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -56725,7 +56725,7 @@
       </c>
       <c r="AV347" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW347" t="inlineStr">
@@ -57368,12 +57368,12 @@
       </c>
       <c r="AU351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW351" t="inlineStr">
@@ -57516,7 +57516,7 @@
       </c>
       <c r="AQ352" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="AR352" t="n">
@@ -57544,7 +57544,7 @@
         </is>
       </c>
       <c r="AX352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -58016,12 +58016,12 @@
       </c>
       <c r="AU355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW355" t="inlineStr">
@@ -58340,12 +58340,12 @@
       </c>
       <c r="AU357" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV357" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
       <c r="AW357" t="inlineStr">
